--- a/tabelas novas/12. postograduacaos.xlsx
+++ b/tabelas novas/12. postograduacaos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\tabelas novas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\project123\tabelas novas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Antigo</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Novo</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ativo</t>
   </si>
   <si>
@@ -46,6 +43,18 @@
   </si>
   <si>
     <t>nomePostoGraduacao</t>
+  </si>
+  <si>
+    <t>post_graduations</t>
+  </si>
+  <si>
+    <t>initials</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
 </sst>
 </file>
@@ -419,30 +428,30 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -457,19 +466,28 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
